--- a/Amazon/System Test Case.xlsx
+++ b/Amazon/System Test Case.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Amazon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7717A4D8-B9AB-4EC4-9B53-897E9F3F432B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C887FE69-9147-4C5C-8E66-B7B02C84ED62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6F2F36EB-E232-4F72-953E-CC8826031F2D}"/>
   </bookViews>
@@ -51,49 +51,28 @@
     <t>Status</t>
   </si>
   <si>
-    <t>1 .</t>
-  </si>
-  <si>
     <t>Open the browser and enter the URL "www.amazon.in"</t>
   </si>
   <si>
     <t xml:space="preserve">Welcome Page should be displayed </t>
   </si>
   <si>
-    <t>2 .</t>
-  </si>
-  <si>
     <t xml:space="preserve">Click on Sign in option </t>
   </si>
   <si>
     <t xml:space="preserve">Conf. msg should be displayed </t>
   </si>
   <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Searched Product Page should be displayed </t>
   </si>
   <si>
-    <t>5.</t>
-  </si>
-  <si>
     <t>Click on the product " Samsung Galaxy 23"</t>
   </si>
   <si>
     <t xml:space="preserve">" Samsung Galaxy 23 "page should be displayed . </t>
   </si>
   <si>
-    <t>6.</t>
-  </si>
-  <si>
     <t>Click on Add to Cart</t>
-  </si>
-  <si>
-    <t>7.</t>
   </si>
   <si>
     <t xml:space="preserve">Click on Cart Logo </t>
@@ -103,16 +82,7 @@
 2.Product(Samsung Galaxy 23 ) should be listed </t>
   </si>
   <si>
-    <t>8.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Address and Payment page  should be displayed </t>
-  </si>
-  <si>
-    <t>9.</t>
-  </si>
-  <si>
-    <t>10.</t>
   </si>
   <si>
     <t xml:space="preserve">1.Your product page should be displayed 
@@ -129,25 +99,13 @@
     <t>Enter  the valid Address of User-B and select payment method and pay the amount</t>
   </si>
   <si>
-    <t>11.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Logout as User -A </t>
   </si>
   <si>
-    <t>12.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Login Page should be displayed </t>
   </si>
   <si>
-    <t>13.</t>
-  </si>
-  <si>
     <t>Login as user-B  and enter valid Email and Password and click on login Btn</t>
-  </si>
-  <si>
-    <t>14.</t>
   </si>
   <si>
     <t>Click on Returns and Orders link</t>
@@ -435,6 +393,48 @@
       </rPr>
       <t xml:space="preserve">    :   4  February 2025</t>
     </r>
+  </si>
+  <si>
+    <t>TC-001</t>
+  </si>
+  <si>
+    <t>TC-002</t>
+  </si>
+  <si>
+    <t>TC-003</t>
+  </si>
+  <si>
+    <t>TC-004</t>
+  </si>
+  <si>
+    <t>TC-005</t>
+  </si>
+  <si>
+    <t>TC-006</t>
+  </si>
+  <si>
+    <t>TC-007</t>
+  </si>
+  <si>
+    <t>TC-008</t>
+  </si>
+  <si>
+    <t>TC-009</t>
+  </si>
+  <si>
+    <t>TC-010</t>
+  </si>
+  <si>
+    <t>TC-011</t>
+  </si>
+  <si>
+    <t>TC-012</t>
+  </si>
+  <si>
+    <t>TC-013</t>
+  </si>
+  <si>
+    <t>TC-014</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -495,9 +495,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -815,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599DE610-D74B-4514-9640-C846F3B4CBEC}">
   <dimension ref="A5:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A24" sqref="A21:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -830,12 +827,12 @@
   <sheetData>
     <row r="5" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -857,156 +854,156 @@
     </row>
     <row r="11" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="C22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+    <row r="23" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1014,7 +1011,7 @@
     </row>
     <row r="29" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Amazon/System Test Case.xlsx
+++ b/Amazon/System Test Case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Amazon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C887FE69-9147-4C5C-8E66-B7B02C84ED62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BF5F57-8B43-4E05-991C-7A2F4BFE80DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6F2F36EB-E232-4F72-953E-CC8826031F2D}"/>
   </bookViews>
@@ -474,7 +474,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -482,20 +482,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,205 +828,206 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599DE610-D74B-4514-9640-C846F3B4CBEC}">
   <dimension ref="A5:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A24" sqref="A21:A24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="68.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="5" max="5" width="33.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="68.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.21875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
+      <c r="B25" s="2"/>
     </row>
     <row r="29" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
